--- a/PCTO_DB.xlsx
+++ b/PCTO_DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t xml:space="preserve">Questo foglio va compilato in tutte le sue parti per poter essere utilizzato dal tool PCTOgen per creare in modo automatico il pacchetto di documentazione per il PCTO di uno o più studenti</t>
   </si>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">A_ATTIVITA_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Attività 1</t>
+    <t xml:space="preserve">Sviluppo in JS</t>
   </si>
   <si>
     <t xml:space="preserve">Attività da svolgere durante il PCTO</t>
@@ -256,16 +256,64 @@
     <t xml:space="preserve">STUDENTE_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Marco Cellini</t>
+  </si>
+  <si>
     <t xml:space="preserve">STUDENTE_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Giuseppe Verdi</t>
-  </si>
-  <si>
     <t xml:space="preserve">STUDENTE_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Enrico Bianchi</t>
+    <t xml:space="preserve">STUDENTE_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTE_20</t>
   </si>
 </sst>
 </file>
@@ -494,7 +542,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -550,11 +598,11 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.28"/>
@@ -742,14 +790,14 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.74"/>
   </cols>
   <sheetData>
@@ -887,13 +935,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
   </cols>
@@ -908,7 +956,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,15 +976,12 @@
       <c r="A8" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
+      <c r="B8" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -944,8 +989,90 @@
       <c r="A10" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
